--- a/Planilhas/PROCV - 4 exemplos  - Feito.xlsx
+++ b/Planilhas/PROCV - 4 exemplos  - Feito.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\escola de formação de lideres\Aula\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\escola de formação de lideres\git\efl\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E243E3-DF75-410B-8EF4-C4BF2F354999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19E007B-EE33-4FFD-B53B-0B4752F3287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14685" yWindow="2640" windowWidth="18930" windowHeight="11250" xr2:uid="{8C80E5E9-58D7-439C-A06D-5130875AEA96}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8C80E5E9-58D7-439C-A06D-5130875AEA96}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -378,21 +378,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -416,6 +401,21 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,6 +504,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -511,15 +520,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -606,6 +606,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -613,15 +622,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -708,6 +708,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -715,15 +724,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{434F9559-80AF-49AD-BE53-2F452E6952CD}" name="SP" displayName="SP" ref="B7:C13" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{434F9559-80AF-49AD-BE53-2F452E6952CD}" name="SP" displayName="SP" ref="B7:C13" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="B7:C13" xr:uid="{434F9559-80AF-49AD-BE53-2F452E6952CD}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0304B655-2990-4EE3-B9CD-5E0AD3496D2D}" name="Nome" dataDxfId="11"/>
@@ -821,7 +821,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D58FE0E-257E-4338-8DCA-470058E572EB}" name="MG" displayName="MG" ref="E7:F13" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D58FE0E-257E-4338-8DCA-470058E572EB}" name="MG" displayName="MG" ref="E7:F13" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="E7:F13" xr:uid="{3D58FE0E-257E-4338-8DCA-470058E572EB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{22BED5C4-8F1D-48DB-B84E-2F263EC947DB}" name="Nome" dataDxfId="6"/>
@@ -832,7 +832,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01854B99-134B-474B-A854-2B7E4F8DD363}" name="RS" displayName="RS" ref="H7:I13" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01854B99-134B-474B-A854-2B7E4F8DD363}" name="RS" displayName="RS" ref="H7:I13" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="H7:I13" xr:uid="{01854B99-134B-474B-A854-2B7E4F8DD363}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F585EE9C-8430-4AAD-991A-BB763C02FB16}" name="Nome" dataDxfId="1"/>
@@ -1142,7 +1142,7 @@
   <dimension ref="A2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,12 +1158,12 @@
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1217,19 +1217,19 @@
       <c r="G8" s="12">
         <v>1</v>
       </c>
-      <c r="H8" s="25" cm="1">
+      <c r="H8" s="20" cm="1">
         <f t="array" ref="H8">VLOOKUP(INDEX($B$8:$B$13,$G$8),$B$7:$E$13,COLUMN(B1),0)</f>
         <v>13800</v>
       </c>
-      <c r="I8" s="25" cm="1">
+      <c r="I8" s="20" cm="1">
         <f t="array" ref="I8">VLOOKUP(INDEX($B$8:$B$13,$G$8),$B$7:$E$13,COLUMN(C1),0)</f>
         <v>26330</v>
       </c>
-      <c r="J8" s="25" cm="1">
+      <c r="J8" s="20" cm="1">
         <f t="array" ref="J8">VLOOKUP(INDEX($B$8:$B$13,$G$8),$B$7:$E$13,COLUMN(D1),0)</f>
         <v>19340</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="20">
         <f>SUM(H8:J8)</f>
         <v>59470</v>
       </c>
@@ -1367,16 +1367,16 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="G5" s="21" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="G5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
@@ -1391,7 +1391,7 @@
       <c r="E7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -1411,10 +1411,10 @@
       <c r="E8" s="4">
         <v>19340</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="20">
         <f>VLOOKUP(G8,B7:E13,MATCH(H7,B7:E7,0),0)</f>
         <v>26330</v>
       </c>
@@ -1527,38 +1527,38 @@
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="K5" s="22" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="K5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="14" t="s">
@@ -1569,22 +1569,22 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="24">
         <v>13800</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="24">
         <v>13800</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="24">
         <v>13800</v>
       </c>
       <c r="K8" s="12" t="s">
@@ -1596,102 +1596,102 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="24">
         <v>12050</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="24">
         <v>12050</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="24">
         <v>12050</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="24">
         <v>16380</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="24">
         <v>16380</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="24">
         <v>16380</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="24">
         <v>24580</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="24">
         <v>24580</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="24">
         <v>24580</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="24">
         <v>18250</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="24">
         <v>18250</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="24">
         <v>18250</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="28">
         <v>16560</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="28">
         <v>16560</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="28">
         <v>16560</v>
       </c>
     </row>
@@ -1733,20 +1733,20 @@
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="G5" s="23" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="G5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
@@ -1764,13 +1764,13 @@
       <c r="G7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="24"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="18" t="s">
         <v>17</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="G8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="20">
         <f>VLOOKUP($H$7,$B$7:$E$13,ROW(A2),0)</f>
         <v>11030</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="K8" s="19">
         <v>30000</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="29">
         <v>0.05</v>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       <c r="G9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="20">
         <f t="shared" ref="H9:H10" si="0">VLOOKUP($H$7,$B$7:$E$13,ROW(A3),0)</f>
         <v>8213</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="K9" s="19">
         <v>50000</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="29">
         <v>0.1</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       <c r="G10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="20">
         <f t="shared" si="0"/>
         <v>10750</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="K10" s="19">
         <v>70000</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       <c r="G11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="20">
         <f>SUM(H8:H10)</f>
         <v>29993</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="G12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="20">
         <f>VLOOKUP(H11,J7:L10,3,1)*H11</f>
         <v>1499.65</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="E13" s="4">
         <v>26620</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="30">
         <f>VLOOKUP(H11,J7:L10,3,1)</f>
         <v>0.05</v>
       </c>
